--- a/service-system/src/main/resources/static/沥青路面渗水系数.xlsx
+++ b/service-system/src/main/resources/static/沥青路面渗水系数.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE3C0E1-9EC8-4CFB-8DE1-2A2B32EFD2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF78D04-85B8-486D-A5CD-75ECCCEF0D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="952" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="隧道路面" sheetId="12" r:id="rId1"/>
@@ -174,7 +174,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -309,7 +309,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -324,7 +324,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -363,10 +363,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -676,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1279,8 +1279,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.70866141732283505"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -1892,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I36"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2485,8 +2484,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.70866141732283505"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -2495,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I36"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3088,8 +3086,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.70866141732283505"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -3098,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I36"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3701,8 +3698,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.70866141732283505"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -3711,8 +3707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I36"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4314,8 +4310,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.70866141732283505"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -4324,8 +4319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4927,8 +4922,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.70866141732283505"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
